--- a/ballots/2013-09 DSTU/QA/FHIR DSTU Review Jan 2014 - Shamil Nizamov.xlsx
+++ b/ballots/2013-09 DSTU/QA/FHIR DSTU Review Jan 2014 - Shamil Nizamov.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="13350" activeTab="2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="416">
   <si>
     <t>Reviewer Name</t>
   </si>
@@ -341,31 +341,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>part</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> of the specification ...</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">... to be described as </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">a </t>
     </r>
     <r>
@@ -6780,13 +6755,61 @@
       </rPr>
       <t xml:space="preserve"> possible</t>
     </r>
+  </si>
+  <si>
+    <t>Grahame</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">... to be described </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of the specification ...</t>
+    </r>
+  </si>
+  <si>
+    <t>not done - not right</t>
+  </si>
+  <si>
+    <t>not done</t>
+  </si>
+  <si>
+    <t>fixed case</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>any part = last or given</t>
+  </si>
+  <si>
+    <t>no - ingredient is 0..</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>no change</t>
+  </si>
+  <si>
+    <t>don't understand</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7038,6 +7061,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -7072,6 +7096,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7247,7 +7272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7255,35 +7280,35 @@
       <selection pane="topRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -7291,37 +7316,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="285">
+    <row r="7" spans="1:2" ht="315" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="120">
+    <row r="8" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>66</v>
       </c>
@@ -7333,7 +7358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7343,14 +7368,14 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="58.7109375" style="4" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1" ht="30">
+    <row r="1" spans="1:3" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -7367,17 +7392,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F217"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C174" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C193" sqref="C193"/>
+      <selection pane="bottomRight" activeCell="G216" sqref="G216"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.5703125" style="4" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="4" customWidth="1"/>
@@ -7385,10 +7410,11 @@
     <col min="4" max="4" width="46.7109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="55.42578125" style="4" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="4"/>
+    <col min="7" max="7" width="19.42578125" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" ht="30">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
@@ -7407,8 +7433,11 @@
       <c r="F1" s="14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="5" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>17</v>
       </c>
@@ -7421,8 +7450,11 @@
       <c r="E2" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>17</v>
       </c>
@@ -7435,2369 +7467,2840 @@
       <c r="E3" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" customHeight="1">
+      <c r="G3" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>119</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>119</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
     </row>
-    <row r="12" spans="1:6" s="8" customFormat="1">
+    <row r="12" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="G16" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
     </row>
-    <row r="18" spans="1:5" ht="30">
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="G18" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="G19" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30">
+      <c r="G20" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="G21" s="4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>22</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
     </row>
-    <row r="27" spans="1:5" ht="45">
+    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="E27" s="4" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="30">
+        <v>400</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="30">
+      <c r="G28" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>108</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>118</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1">
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C32" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="17.25" customHeight="1">
+      <c r="G32" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>401</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="G34" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C38" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="G38" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C39" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="G39" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C40" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="E40" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="G40" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C42" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="E42" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="30">
+        <v>138</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C43" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="E43" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C44" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="E44" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>118</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C45" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="E45" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>118</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>29</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="E48" s="12"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>30</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C51" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="G51" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>32</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C55" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="E55" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E55" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="G55" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="18" customHeight="1">
+      <c r="G57" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C58" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="E58" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>119</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C59" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D59" s="4" t="s">
-        <v>145</v>
-      </c>
       <c r="E59" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>118</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>118</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C61" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="E61" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E61" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="G61" s="4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C62" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="G62" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C63" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="G63" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C64" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D64" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="G64" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C65" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="15" customHeight="1">
+      <c r="G65" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C66" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D66" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D66" s="4" t="s">
-        <v>160</v>
-      </c>
       <c r="E66" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="15" customHeight="1">
+        <v>118</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C67" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D67" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D67" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="E67" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="17.25" customHeight="1">
+        <v>118</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="15" customHeight="1">
+        <v>97</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C69" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D69" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="E69" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="15" customHeight="1">
+        <v>138</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C70" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="E70" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="E70" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="G70" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C72" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="G72" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C73" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E73" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E73" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="G73" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C74" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="G74" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C75" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D75" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>177</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="G75" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C76" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="G76" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C77" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D77" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>181</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="G77" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="G78" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C79" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D79" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="G79" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C80" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D80" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="G80" s="4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="G81" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C82" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D82" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="G82" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C84" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D84" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="G84" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C85" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D85" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="G85" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C86" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D86" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="G86" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C87" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D87" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>199</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="G87" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>201</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C89" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E89" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E89" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="G89" s="4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C90" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E90" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D90" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="G90" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="10"/>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C92" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D92" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D92" s="4" t="s">
-        <v>207</v>
-      </c>
       <c r="E92" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>118</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C93" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D93" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="E93" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="E93" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="48" customHeight="1">
+      <c r="G93" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C94" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E94" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E94" s="4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="G94" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C95" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D95" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="E95" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="E95" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="G95" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="10"/>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
         <v>38</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C99" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D99" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="E99" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="E99" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="G99" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="10"/>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="G101" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C102" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D102" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>219</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="G102" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>118</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C104" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D104" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>223</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="G104" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C105" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D105" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>225</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="106" spans="1:5">
+      <c r="G105" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C106" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D106" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>227</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="G106" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C107" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D107" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="E107" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E107" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="G107" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="10"/>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="17" t="s">
         <v>41</v>
       </c>
       <c r="C109" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D109" s="4" t="s">
         <v>231</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>232</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="110" spans="1:5">
+      <c r="G109" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="17" t="s">
         <v>41</v>
       </c>
       <c r="C110" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D110" s="4" t="s">
         <v>233</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>234</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="111" spans="1:5">
+      <c r="G110" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="17" t="s">
         <v>41</v>
       </c>
       <c r="C111" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D111" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>236</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="112" spans="1:5">
+      <c r="G111" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="17" t="s">
         <v>41</v>
       </c>
       <c r="C112" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D112" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="D112" s="4" t="s">
+      <c r="E112" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="E112" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+      <c r="G112" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="17" t="s">
         <v>41</v>
       </c>
       <c r="C113" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D113" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="D113" s="4" t="s">
-        <v>241</v>
-      </c>
       <c r="E113" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
+        <v>238</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="17" t="s">
         <v>41</v>
       </c>
       <c r="C114" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D114" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="D114" s="4" t="s">
-        <v>243</v>
-      </c>
       <c r="E114" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+        <v>238</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="17" t="s">
         <v>41</v>
       </c>
       <c r="C115" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D115" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="D115" s="4" t="s">
-        <v>245</v>
-      </c>
       <c r="E115" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+        <v>238</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="17"/>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
         <v>42</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="16"/>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="17" t="s">
         <v>43</v>
       </c>
       <c r="C119" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D119" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="D119" s="4" t="s">
-        <v>247</v>
-      </c>
       <c r="E119" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
+        <v>97</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="17" t="s">
         <v>43</v>
       </c>
       <c r="C120" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E120" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="E120" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+      <c r="G120" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="15"/>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="17" t="s">
         <v>44</v>
       </c>
       <c r="C122" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D122" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>251</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="123" spans="1:5">
+      <c r="G122" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="17" t="s">
         <v>44</v>
       </c>
       <c r="C123" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D123" s="4" t="s">
         <v>252</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>253</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="124" spans="1:5">
+      <c r="G123" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="17" t="s">
         <v>44</v>
       </c>
       <c r="C124" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="E124" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="E124" s="4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+      <c r="G124" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="17"/>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
         <v>45</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="16"/>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="12" t="s">
         <v>46</v>
       </c>
       <c r="E128" s="12" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="15"/>
       <c r="E129" s="12"/>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
         <v>47</v>
       </c>
       <c r="E130" s="12" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="15"/>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="17" t="s">
         <v>48</v>
       </c>
       <c r="C132" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D132" s="4" t="s">
         <v>258</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>259</v>
       </c>
       <c r="E132" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="133" spans="1:5">
+      <c r="G132" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="15"/>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
         <v>49</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="11"/>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="12" t="s">
         <v>50</v>
       </c>
       <c r="E136" s="12" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="17"/>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="17" t="s">
         <v>51</v>
       </c>
       <c r="C138" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D138" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="D138" s="4" t="s">
+      <c r="E138" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="E138" s="4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+      <c r="G138" s="4" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="17"/>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="17" t="s">
         <v>52</v>
       </c>
       <c r="C140" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D140" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D140" s="4" t="s">
-        <v>264</v>
-      </c>
       <c r="E140" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
+        <v>209</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="17" t="s">
         <v>52</v>
       </c>
       <c r="C141" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D141" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="D141" s="4" t="s">
-        <v>266</v>
-      </c>
       <c r="E141" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
+        <v>209</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="17" t="s">
         <v>52</v>
       </c>
       <c r="C142" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D142" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="D142" s="4" t="s">
-        <v>268</v>
-      </c>
       <c r="E142" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
+        <v>209</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="17" t="s">
         <v>52</v>
       </c>
       <c r="C143" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D143" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>270</v>
       </c>
       <c r="E143" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="144" spans="1:5">
+      <c r="G143" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="17" t="s">
         <v>52</v>
       </c>
       <c r="C144" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D144" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="D144" s="4" t="s">
-        <v>272</v>
-      </c>
       <c r="E144" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
+        <v>118</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="17" t="s">
         <v>52</v>
       </c>
       <c r="C145" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D145" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="D145" s="4" t="s">
-        <v>274</v>
-      </c>
       <c r="E145" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
+        <v>209</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="17" t="s">
         <v>52</v>
       </c>
       <c r="C146" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E146" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="E146" s="4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
+      <c r="G146" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="17"/>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="17" t="s">
         <v>53</v>
       </c>
       <c r="C148" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D148" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="D148" s="4" t="s">
-        <v>278</v>
-      </c>
       <c r="E148" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
+        <v>97</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="17" t="s">
         <v>53</v>
       </c>
       <c r="C149" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D149" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="D149" s="4" t="s">
+      <c r="E149" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="E149" s="4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
+      <c r="G149" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="17"/>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C151" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D151" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>283</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="152" spans="1:5">
+      <c r="G151" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="17"/>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="17" t="s">
         <v>55</v>
       </c>
       <c r="C153" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D153" s="4" t="s">
         <v>284</v>
-      </c>
-      <c r="D153" s="4" t="s">
-        <v>285</v>
       </c>
       <c r="E153" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="154" spans="1:5">
+      <c r="G153" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="17" t="s">
         <v>55</v>
       </c>
       <c r="C154" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D154" s="4" t="s">
         <v>286</v>
-      </c>
-      <c r="D154" s="4" t="s">
-        <v>287</v>
       </c>
       <c r="E154" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="155" spans="1:5">
+      <c r="G154" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="17" t="s">
         <v>55</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
+        <v>214</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="17" t="s">
         <v>55</v>
       </c>
       <c r="C156" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D156" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="D156" s="4" t="s">
-        <v>290</v>
-      </c>
       <c r="E156" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" ht="16.5" customHeight="1">
+        <v>118</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="17" t="s">
         <v>55</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
+        <v>290</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="17" t="s">
         <v>55</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
+        <v>290</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="17" t="s">
         <v>55</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
+        <v>290</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="17"/>
     </row>
-    <row r="161" spans="1:5" ht="30">
+    <row r="161" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="17" t="s">
         <v>56</v>
       </c>
       <c r="C161" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="E161" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="E161" s="4" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
+      <c r="G161" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="17" t="s">
         <v>56</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
+        <v>118</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="17" t="s">
         <v>56</v>
       </c>
       <c r="C163" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D163" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="D163" s="4" t="s">
+      <c r="E163" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="E163" s="4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
+      <c r="G163" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="17" t="s">
         <v>56</v>
       </c>
       <c r="C164" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D164" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="D164" s="4" t="s">
-        <v>303</v>
-      </c>
       <c r="E164" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
+        <v>118</v>
+      </c>
+      <c r="G164" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="17" t="s">
         <v>56</v>
       </c>
       <c r="C165" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D165" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="D165" s="4" t="s">
-        <v>305</v>
-      </c>
       <c r="E165" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" ht="30">
+        <v>118</v>
+      </c>
+      <c r="G165" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="17" t="s">
         <v>56</v>
       </c>
       <c r="C166" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D166" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="D166" s="4" t="s">
-        <v>307</v>
-      </c>
       <c r="E166" s="4" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" ht="30">
+        <v>402</v>
+      </c>
+      <c r="G166" s="4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="17" t="s">
         <v>56</v>
       </c>
       <c r="C167" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="D167" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="D167" s="4" t="s">
-        <v>309</v>
-      </c>
       <c r="E167" s="4" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
+        <v>402</v>
+      </c>
+      <c r="G167" s="4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="17"/>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="17" t="s">
         <v>57</v>
       </c>
       <c r="C169" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D169" s="4" t="s">
         <v>310</v>
-      </c>
-      <c r="D169" s="4" t="s">
-        <v>311</v>
       </c>
       <c r="E169" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="170" spans="1:5">
+      <c r="G169" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="17" t="s">
         <v>57</v>
       </c>
       <c r="C170" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D170" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="D170" s="4" t="s">
+      <c r="E170" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="E170" s="4" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
+      <c r="G170" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="17" t="s">
         <v>57</v>
       </c>
       <c r="C171" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D171" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="D171" s="4" t="s">
-        <v>316</v>
-      </c>
       <c r="E171" s="4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
+        <v>300</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="17" t="s">
         <v>57</v>
       </c>
       <c r="C172" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D172" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="D172" s="4" t="s">
-        <v>318</v>
-      </c>
       <c r="E172" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
+        <v>118</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="17" t="s">
         <v>57</v>
       </c>
       <c r="C173" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D173" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D173" s="4" t="s">
-        <v>320</v>
-      </c>
       <c r="E173" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
+        <v>97</v>
+      </c>
+      <c r="G173" s="4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="17" t="s">
         <v>57</v>
       </c>
       <c r="C174" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D174" s="4" t="s">
         <v>321</v>
-      </c>
-      <c r="D174" s="4" t="s">
-        <v>322</v>
       </c>
       <c r="E174" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="175" spans="1:5">
+      <c r="G174" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="17" t="s">
         <v>57</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E175" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="176" spans="1:5">
+      <c r="G175" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="17" t="s">
         <v>57</v>
       </c>
       <c r="C176" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D176" s="4" t="s">
         <v>325</v>
-      </c>
-      <c r="D176" s="4" t="s">
-        <v>326</v>
       </c>
       <c r="E176" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="177" spans="1:5">
+      <c r="G176" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="17" t="s">
         <v>57</v>
       </c>
       <c r="C177" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="D177" s="4" t="s">
         <v>327</v>
-      </c>
-      <c r="D177" s="4" t="s">
-        <v>328</v>
       </c>
       <c r="E177" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="178" spans="1:5">
+      <c r="G177" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="17" t="s">
         <v>57</v>
       </c>
       <c r="C178" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="E178" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="E178" s="4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
+      <c r="G178" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="15"/>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="17" t="s">
         <v>58</v>
       </c>
       <c r="C180" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D180" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="D180" s="4" t="s">
-        <v>332</v>
-      </c>
       <c r="E180" s="4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
+        <v>300</v>
+      </c>
+      <c r="G180" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="17" t="s">
         <v>58</v>
       </c>
       <c r="C181" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D181" s="4" t="s">
         <v>333</v>
-      </c>
-      <c r="D181" s="4" t="s">
-        <v>334</v>
       </c>
       <c r="E181" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="182" spans="1:5">
+      <c r="G181" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="17" t="s">
         <v>58</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
+        <v>118</v>
+      </c>
+      <c r="G182" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="17" t="s">
         <v>58</v>
       </c>
       <c r="C183" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D183" s="4" t="s">
         <v>337</v>
-      </c>
-      <c r="D183" s="4" t="s">
-        <v>338</v>
       </c>
       <c r="E183" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="184" spans="1:5">
+      <c r="G183" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="17" t="s">
         <v>58</v>
       </c>
       <c r="C184" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D184" s="4" t="s">
         <v>339</v>
-      </c>
-      <c r="D184" s="4" t="s">
-        <v>340</v>
       </c>
       <c r="E184" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="185" spans="1:5">
+      <c r="G184" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="17" t="s">
         <v>58</v>
       </c>
       <c r="C185" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D185" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="D185" s="4" t="s">
-        <v>342</v>
-      </c>
       <c r="E185" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
+        <v>238</v>
+      </c>
+      <c r="G185" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="17" t="s">
         <v>58</v>
       </c>
       <c r="C186" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D186" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="D186" s="4" t="s">
-        <v>344</v>
-      </c>
       <c r="E186" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
+        <v>209</v>
+      </c>
+      <c r="G186" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="17" t="s">
         <v>58</v>
       </c>
       <c r="C187" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D187" s="4" t="s">
         <v>345</v>
-      </c>
-      <c r="D187" s="4" t="s">
-        <v>346</v>
       </c>
       <c r="E187" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="188" spans="1:5">
+      <c r="G187" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="17" t="s">
         <v>58</v>
       </c>
       <c r="C188" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="D188" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="D188" s="4" t="s">
+      <c r="E188" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="E188" s="4" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
+      <c r="G188" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="17" t="s">
         <v>58</v>
       </c>
       <c r="C189" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="D189" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="D189" s="4" t="s">
-        <v>351</v>
-      </c>
       <c r="E189" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
+        <v>238</v>
+      </c>
+      <c r="G189" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="17" t="s">
         <v>58</v>
       </c>
       <c r="C190" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="D190" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="D190" s="4" t="s">
-        <v>353</v>
-      </c>
       <c r="E190" s="4" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5">
+        <v>348</v>
+      </c>
+      <c r="G190" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="17"/>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="11" t="s">
         <v>59</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="11"/>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="17" t="s">
         <v>60</v>
       </c>
       <c r="C194" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="D194" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="D194" s="4" t="s">
-        <v>355</v>
-      </c>
       <c r="E194" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
+        <v>97</v>
+      </c>
+      <c r="G194" s="4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="17" t="s">
         <v>60</v>
       </c>
       <c r="C195" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D195" s="4" t="s">
         <v>356</v>
-      </c>
-      <c r="D195" s="4" t="s">
-        <v>357</v>
       </c>
       <c r="E195" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="196" spans="1:5">
+      <c r="G195" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="17" t="s">
         <v>60</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E196" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="197" spans="1:5">
+      <c r="G196" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="17" t="s">
         <v>60</v>
       </c>
       <c r="C197" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="D197" s="4" t="s">
         <v>359</v>
-      </c>
-      <c r="D197" s="4" t="s">
-        <v>360</v>
       </c>
       <c r="E197" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="198" spans="1:5">
+      <c r="G197" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="17" t="s">
         <v>60</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
+        <v>118</v>
+      </c>
+      <c r="G198" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="17" t="s">
         <v>60</v>
       </c>
       <c r="C199" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="E199" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="E199" s="4" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
+      <c r="G199" s="4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="17" t="s">
         <v>60</v>
       </c>
       <c r="C200" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="D200" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="D200" s="4" t="s">
-        <v>366</v>
-      </c>
       <c r="E200" s="4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
+        <v>300</v>
+      </c>
+      <c r="G200" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="17" t="s">
         <v>60</v>
       </c>
       <c r="C201" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="D201" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="D201" s="4" t="s">
-        <v>368</v>
-      </c>
       <c r="E201" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
+        <v>97</v>
+      </c>
+      <c r="G201" s="4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="17" t="s">
         <v>60</v>
       </c>
       <c r="C202" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="D202" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="D202" s="4" t="s">
-        <v>370</v>
-      </c>
       <c r="E202" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
+        <v>97</v>
+      </c>
+      <c r="G202" s="4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="17" t="s">
         <v>60</v>
       </c>
       <c r="C203" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="D203" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="D203" s="4" t="s">
-        <v>372</v>
-      </c>
       <c r="E203" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
+        <v>209</v>
+      </c>
+      <c r="G203" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="17" t="s">
         <v>60</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" ht="30">
+        <v>209</v>
+      </c>
+      <c r="G204" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="17" t="s">
         <v>60</v>
       </c>
       <c r="C205" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="E205" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="E205" s="4" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
+      <c r="G205" s="4" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="17" t="s">
         <v>60</v>
       </c>
       <c r="C206" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D206" s="4" t="s">
         <v>377</v>
-      </c>
-      <c r="D206" s="4" t="s">
-        <v>378</v>
       </c>
       <c r="E206" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="207" spans="1:5">
+      <c r="G206" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="17" t="s">
         <v>60</v>
       </c>
       <c r="C207" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="E207" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="D207" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="E207" s="4" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
+      <c r="G207" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="17" t="s">
         <v>60</v>
       </c>
       <c r="C208" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="D208" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="D208" s="4" t="s">
-        <v>383</v>
-      </c>
       <c r="E208" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
+        <v>97</v>
+      </c>
+      <c r="G208" s="4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="17" t="s">
         <v>60</v>
       </c>
       <c r="C209" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="D209" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="D209" s="4" t="s">
+      <c r="E209" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="E209" s="4" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
+      <c r="G209" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="15"/>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="17" t="s">
         <v>61</v>
       </c>
       <c r="C211" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="D211" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="D211" s="4" t="s">
-        <v>388</v>
-      </c>
       <c r="E211" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
+        <v>97</v>
+      </c>
+      <c r="G211" s="4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="17" t="s">
         <v>61</v>
       </c>
       <c r="C212" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="D212" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="D212" s="4" t="s">
-        <v>390</v>
-      </c>
       <c r="E212" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
+        <v>97</v>
+      </c>
+      <c r="G212" s="4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="17" t="s">
         <v>61</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
+        <v>118</v>
+      </c>
+      <c r="G213" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="17" t="s">
         <v>61</v>
       </c>
       <c r="C214" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D214" s="4" t="s">
         <v>393</v>
-      </c>
-      <c r="D214" s="4" t="s">
-        <v>394</v>
       </c>
       <c r="E214" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="215" spans="1:5">
+      <c r="G214" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="17" t="s">
         <v>61</v>
       </c>
       <c r="C215" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="D215" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="D215" s="4" t="s">
-        <v>396</v>
-      </c>
       <c r="E215" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
+        <v>238</v>
+      </c>
+      <c r="G215" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="17" t="s">
         <v>61</v>
       </c>
       <c r="C216" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="D216" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="D216" s="4" t="s">
-        <v>398</v>
-      </c>
       <c r="E216" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
+        <v>209</v>
+      </c>
+      <c r="G216" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="17" t="s">
         <v>61</v>
       </c>
       <c r="C217" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="D217" s="4" t="s">
         <v>399</v>
-      </c>
-      <c r="D217" s="4" t="s">
-        <v>400</v>
       </c>
       <c r="E217" s="4" t="s">
         <v>69</v>
+      </c>
+      <c r="G217" s="4" t="s">
+        <v>405</v>
       </c>
     </row>
   </sheetData>
